--- a/forwardprimer-v3_28.xlsx
+++ b/forwardprimer-v3_28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_28" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F2593-AAGGAACCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGAACCTATCGTCGGCAGCGTC</t>
+    <t>F2593-TACTCTAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCTAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F2594-GCATCTCCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATCTCCATTCGTCGGCAGCGTC</t>
+    <t>F2594-ATGTCAACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTCAACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F2595-AAGACGAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACGAAGCTCGTCGGCAGCGTC</t>
+    <t>F2595-TCACTGGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACTGGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F2596-TTCCAAGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAAGTTGTCGTCGGCAGCGTC</t>
+    <t>F2596-TCTAGAACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGAACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F2597-GAGCACTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGCACTAGTTCGTCGGCAGCGTC</t>
+    <t>F2597-GATCCTCGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCCTCGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F2598-CAGAAGTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGAAGTTCTTCGTCGGCAGCGTC</t>
+    <t>F2598-CCAGAGACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCAGAGACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F2599-TGACAACTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACAACTGATCGTCGGCAGCGTC</t>
+    <t>F2599-TGCTCCTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTCCTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F2600-AGAGTGAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTGAACCTCGTCGGCAGCGTC</t>
+    <t>F2600-TTCGAGGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGAGGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F2601-CTTCGTCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCGTCAAGTCGTCGGCAGCGTC</t>
+    <t>F2601-ACGTGTCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTGTCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F2602-ACTCATGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCATGCTATCGTCGGCAGCGTC</t>
+    <t>F2602-TGCATCAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCATCAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F2603-AGTACAAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTACAAGTCTCGTCGGCAGCGTC</t>
+    <t>F2603-GATCCTGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCCTGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F2604-ATGAAGAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAAGAGGATCGTCGGCAGCGTC</t>
+    <t>F2604-GTCATGCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCATGCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F2605-AGACACCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACACCACATCGTCGGCAGCGTC</t>
+    <t>F2605-CAGATGTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGATGTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F2606-AAGTAGCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTAGCAGTTCGTCGGCAGCGTC</t>
+    <t>F2606-AACACATCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACATCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F2607-CGAACAAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAACAAGTATCGTCGGCAGCGTC</t>
+    <t>F2607-GATCTCGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCTCGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F2608-GTACACACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACACACTATCGTCGGCAGCGTC</t>
+    <t>F2608-AAGCACCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCACCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F2609-TACAGGTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAGGTCCTTCGTCGGCAGCGTC</t>
+    <t>F2609-CAACACCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACACCATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F2610-TTCTTCCTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTTCCTGCTCGTCGGCAGCGTC</t>
+    <t>F2610-TGCTGAGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTGAGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F2611-GTGACAAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGACAAGACTCGTCGGCAGCGTC</t>
+    <t>F2611-TCTGTGATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTGATGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F2612-GCAGACTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAGACTTGATCGTCGGCAGCGTC</t>
+    <t>F2612-TTGACACCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGACACCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F2613-TACTCGACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCGACATTCGTCGGCAGCGTC</t>
+    <t>F2613-AACAAGGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F2614-TCGATGAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGATGAAGTTCGTCGGCAGCGTC</t>
+    <t>F2614-AGCTTCTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTTCTACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F2615-TTCCTGGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTGGAGATCGTCGGCAGCGTC</t>
+    <t>F2615-GATGCTGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGCTGCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F2616-ATCGAGCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGAGCAACTCGTCGGCAGCGTC</t>
+    <t>F2616-TACACACGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACACACGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F2617-TCCTACTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTACTTCATCGTCGGCAGCGTC</t>
+    <t>F2617-AACAAGCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F2618-TCTCTACTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTACTGCTCGTCGGCAGCGTC</t>
+    <t>F2618-GGTAGAGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGAGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F2619-GACCTTCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACCTTCTGTTCGTCGGCAGCGTC</t>
+    <t>F2619-GAGTCCTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCCTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F2620-TACAGACCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAGACCAATCGTCGGCAGCGTC</t>
+    <t>F2620-GACTGTCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTGTCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F2621-AGGTACCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTACCTCATCGTCGGCAGCGTC</t>
+    <t>F2621-GAAGCATCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCATCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F2622-TGCTGATCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTGATCTGTCGTCGGCAGCGTC</t>
+    <t>F2622-AACGAGTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGAGTTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F2623-TGGTGTCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGTCAAGTCGTCGGCAGCGTC</t>
+    <t>F2623-TTCCATGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCATGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F2624-ACTACGACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTACGACCTTCGTCGGCAGCGTC</t>
+    <t>F2624-TGAACACAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAACACAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F2625-AACGAGGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGAGGAGTTCGTCGGCAGCGTC</t>
+    <t>F2625-GCTGTGTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTGTGTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F2626-CCTACCTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTACCTAGATCGTCGGCAGCGTC</t>
+    <t>F2626-ACTACAGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTACAGCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F2627-TTCGACTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGACTCCATCGTCGGCAGCGTC</t>
+    <t>F2627-ACTCGAGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCGAGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F2628-GTGTCGTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCGTAGATCGTCGGCAGCGTC</t>
+    <t>F2628-ATCTCCTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTCCTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F2629-ACAACAGACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACAGACGTCGTCGGCAGCGTC</t>
+    <t>F2629-GCTTGTCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGTCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F2630-CATGACACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGACACACTCGTCGGCAGCGTC</t>
+    <t>F2630-TGTGGTACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGGTACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F2631-GGTCTTGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTCTTGCTTTCGTCGGCAGCGTC</t>
+    <t>F2631-TGAGTGAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTGAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F2632-CTTGCACTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGCACTGATCGTCGGCAGCGTC</t>
+    <t>F2632-GGAACTCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAACTCTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F2633-CAACAGTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACAGTGTCTCGTCGGCAGCGTC</t>
+    <t>F2633-AACGACATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGACATGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F2634-TACTCAGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCAGATGTCGTCGGCAGCGTC</t>
+    <t>F2634-AGAAGCTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGCTAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F2635-GAGAGAGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGAGTAGTCGTCGGCAGCGTC</t>
+    <t>F2635-GGAGTTGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAGTTGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F2636-TGTGACTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGACTCACTCGTCGGCAGCGTC</t>
+    <t>F2636-TGGATGAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGATGAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F2637-AGTAGCACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGCACACTCGTCGGCAGCGTC</t>
+    <t>F2637-CATCGTCCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCGTCCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F2638-TCGTACTTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTACTTGGTCGTCGGCAGCGTC</t>
+    <t>F2638-AGGTAGAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTAGAACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F2639-ACTGTGGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGTGGACTTCGTCGGCAGCGTC</t>
+    <t>F2639-CAACCTGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACCTGCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F2640-ACGAGAGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAGAGGATTCGTCGGCAGCGTC</t>
+    <t>F2640-ACAGTGGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGTGGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F2641-ACAGTCATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTCATGCTCGTCGGCAGCGTC</t>
+    <t>F2641-AAGTACTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTACTGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F2642-TCAACGAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAACGAGAATCGTCGGCAGCGTC</t>
+    <t>F2642-GATCGTCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCGTCTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F2643-GAACTGCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACTGCAACTCGTCGGCAGCGTC</t>
+    <t>F2643-CATCCACACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCCACACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F2644-TCCATGCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCATGCACTTCGTCGGCAGCGTC</t>
+    <t>F2644-AACTCCTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCCTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F2645-TGCACTACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCACTACAATCGTCGGCAGCGTC</t>
+    <t>F2645-TGTCTCGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTCGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F2646-ATGATCACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGATCACGTTCGTCGGCAGCGTC</t>
+    <t>F2646-TGAGTCACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTCACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F2647-CAAGTTGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTTGACATCGTCGGCAGCGTC</t>
+    <t>F2647-AGGTTGTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTTGTCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F2648-TACCTCCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCTCCTAGTCGTCGGCAGCGTC</t>
+    <t>F2648-ACCACGTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCACGTGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F2649-TAGTGTCTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGTCTCGTCGTCGGCAGCGTC</t>
+    <t>F2649-CACTGACGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTGACGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F2650-TAGACAGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACAGGTATCGTCGGCAGCGTC</t>
+    <t>F2650-ACACTGAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTGAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F2651-AGGTGACTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTGACTCTTCGTCGGCAGCGTC</t>
+    <t>F2651-AGAACTGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACTGCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F2652-AGCTTCCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTTCCTTCTCGTCGGCAGCGTC</t>
+    <t>F2652-GTGTGTACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTGTACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F2653-GAAGATCGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGATCGTCTCGTCGGCAGCGTC</t>
+    <t>F2653-TCACTCTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACTCTTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F2654-AGTGCAAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGCAAGAGTCGTCGGCAGCGTC</t>
+    <t>F2654-AAGCATCGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCATCGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F2655-CGTTGACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGACGTATCGTCGGCAGCGTC</t>
+    <t>F2655-TTCACATCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCACATCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F2656-TCAGCTGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGCTGCAATCGTCGGCAGCGTC</t>
+    <t>F2656-TCGATCAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGATCAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F2657-TAGTGAGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGAGACATCGTCGGCAGCGTC</t>
+    <t>F2657-TCGTCGTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTCGTTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F2658-GTCGTTGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCGTTGTCTTCGTCGGCAGCGTC</t>
+    <t>F2658-CTCGTTCGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCGTTCGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F2659-CAGCTTGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGCTTGACTTCGTCGGCAGCGTC</t>
+    <t>F2659-TGCATGTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCATGTCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F2660-ATGTGAACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTGAACACTCGTCGGCAGCGTC</t>
+    <t>F2660-TACGACCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGACCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F2661-TACGTGAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGTGAACATCGTCGGCAGCGTC</t>
+    <t>F2661-CCTTCACCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCACCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F2662-TCACGATGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACGATGATTCGTCGGCAGCGTC</t>
+    <t>F2662-ACCTCTAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTCTAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F2663-TGATGTCCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATGTCCTATCGTCGGCAGCGTC</t>
+    <t>F2663-TCACCTGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACCTGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F2664-GAGAGTTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGTTGCTTCGTCGGCAGCGTC</t>
+    <t>F2664-TACACTTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACACTTGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F2665-CAAGGATCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGGATCTTTCGTCGGCAGCGTC</t>
+    <t>F2665-TCAAGTAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGTAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F2666-CTTGCATGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGCATGACTCGTCGGCAGCGTC</t>
+    <t>F2666-TAGAGACTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGACTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F2667-TACACAGCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACACAGCAGTCGTCGGCAGCGTC</t>
+    <t>F2667-CTACTGCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACTGCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F2668-TGCTAGGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTAGGTCTTCGTCGGCAGCGTC</t>
+    <t>F2668-ACAAGTGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGTGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F2669-TGAAGGTTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGGTTGGTCGTCGGCAGCGTC</t>
+    <t>F2669-GGTGTACACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTGTACACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F2670-CTTCGATCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCGATCTGTCGTCGGCAGCGTC</t>
+    <t>F2670-GGATGGTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATGGTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F2671-CGTCATGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTCATGCAATCGTCGGCAGCGTC</t>
+    <t>F2671-AACCAAGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCAAGACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F2672-ACAAGGTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGGTGCATCGTCGGCAGCGTC</t>
+    <t>F2672-TACCACAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCACAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F2673-AAGAGAAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGAAGTCTCGTCGGCAGCGTC</t>
+    <t>F2673-TGACAGACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACAGACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F2674-TCTGAAGTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGAAGTGCTCGTCGGCAGCGTC</t>
+    <t>F2674-GTTCGTCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCGTCTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F2675-ACTACACAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTACACAGGTCGTCGGCAGCGTC</t>
+    <t>F2675-CTTGACAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGACAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F2676-CATGTGCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGTGCACATCGTCGGCAGCGTC</t>
+    <t>F2676-TTCAGAAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGAAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F2677-GACAGAGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACAGAGCATTCGTCGGCAGCGTC</t>
+    <t>F2677-CTGTTCACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTTCACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F2678-GAGATGTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGATGTCGATCGTCGGCAGCGTC</t>
+    <t>F2678-CCATGGTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCATGGTTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F2679-ACACTAGAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTAGAGCTCGTCGGCAGCGTC</t>
+    <t>F2679-TCAGACATGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGACATGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F2680-TCTTGGATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGGATGCTCGTCGGCAGCGTC</t>
+    <t>F2680-AGGTTGCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTTGCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F2681-TCAGGTGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGGTGAAGTCGTCGGCAGCGTC</t>
+    <t>F2681-CATCGAGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCGAGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F2682-ATCTCCAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTCCAACGTCGTCGGCAGCGTC</t>
+    <t>F2682-GCTAGACACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTAGACACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F2683-CTTGTAGACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGTAGACGTCGTCGGCAGCGTC</t>
+    <t>F2683-TACACCTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACACCTCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F2684-AAGATCCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGATCCACATCGTCGGCAGCGTC</t>
+    <t>F2684-GTAGTCTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTCTTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F2685-TACATCCACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACATCCACGTCGTCGGCAGCGTC</t>
+    <t>F2685-ACATGTGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATGTGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F2686-TGACAACCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACAACCTCTCGTCGGCAGCGTC</t>
+    <t>F2686-GAGTGACTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGACTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F2687-ACTACCACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTACCACAATCGTCGGCAGCGTC</t>
+    <t>F2687-GGTTCTTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTTCTTCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F2688-TGTTCGTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCGTGTATCGTCGGCAGCGTC</t>
+    <t>F2688-GGTAGAGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGAGTTGTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
